--- a/artfynd/Lill-Lögdåberget V artfynd.xlsx
+++ b/artfynd/Lill-Lögdåberget V artfynd.xlsx
@@ -780,10 +780,14 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Cajsa Björkén</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Carl Jansson, Vilhelm Kroon, Cajsa Björkén</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
